--- a/DataFileSamples/Iris.xlsx
+++ b/DataFileSamples/Iris.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Daily\文章写作\LDA Pieter Vermeesch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\GeoPyTool\DataFileSamples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E957D16B-0834-4C1E-9B9D-A0CF2B89AABF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF2B5EB-3A81-4772-9F3B-1556AA3B8324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2004" yWindow="2712" windowWidth="17280" windowHeight="9420"/>
+    <workbookView xWindow="2352" yWindow="3060" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Iris" sheetId="1" r:id="rId1"/>
@@ -40,10 +40,6 @@
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -91,11 +87,15 @@
     <t>blue</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1067,11 +1067,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="G102" sqref="G102:G151"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1081,7 +1081,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -1093,28 +1093,28 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1137,10 +1137,10 @@
         <v>0.2</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" s="2">
         <v>50</v>
@@ -1149,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L2" s="2">
         <v>0.4</v>
@@ -1175,10 +1175,10 @@
         <v>0.2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" s="2">
         <v>50</v>
@@ -1187,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L3" s="2">
         <v>0.4</v>
@@ -1213,10 +1213,10 @@
         <v>0.2</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="2">
         <v>50</v>
@@ -1225,7 +1225,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L4" s="2">
         <v>0.4</v>
@@ -1251,10 +1251,10 @@
         <v>0.2</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I5" s="2">
         <v>50</v>
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L5" s="2">
         <v>0.4</v>
@@ -1289,10 +1289,10 @@
         <v>0.2</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" s="2">
         <v>50</v>
@@ -1301,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L6" s="2">
         <v>0.4</v>
@@ -1327,10 +1327,10 @@
         <v>0.4</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7" s="2">
         <v>50</v>
@@ -1339,7 +1339,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L7" s="2">
         <v>0.4</v>
@@ -1365,10 +1365,10 @@
         <v>0.3</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I8" s="2">
         <v>50</v>
@@ -1377,7 +1377,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L8" s="2">
         <v>0.4</v>
@@ -1403,10 +1403,10 @@
         <v>0.2</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9" s="2">
         <v>50</v>
@@ -1415,7 +1415,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L9" s="2">
         <v>0.4</v>
@@ -1441,10 +1441,10 @@
         <v>0.2</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I10" s="2">
         <v>50</v>
@@ -1453,7 +1453,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L10" s="2">
         <v>0.4</v>
@@ -1479,10 +1479,10 @@
         <v>0.1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I11" s="2">
         <v>50</v>
@@ -1491,7 +1491,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L11" s="2">
         <v>0.4</v>
@@ -1517,10 +1517,10 @@
         <v>0.2</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I12" s="2">
         <v>50</v>
@@ -1529,7 +1529,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L12" s="2">
         <v>0.4</v>
@@ -1555,10 +1555,10 @@
         <v>0.2</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I13" s="2">
         <v>50</v>
@@ -1567,7 +1567,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L13" s="2">
         <v>0.4</v>
@@ -1593,10 +1593,10 @@
         <v>0.1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I14" s="2">
         <v>50</v>
@@ -1605,7 +1605,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L14" s="2">
         <v>0.4</v>
@@ -1631,10 +1631,10 @@
         <v>0.1</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I15" s="2">
         <v>50</v>
@@ -1643,7 +1643,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L15" s="2">
         <v>0.4</v>
@@ -1669,10 +1669,10 @@
         <v>0.2</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I16" s="2">
         <v>50</v>
@@ -1681,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L16" s="2">
         <v>0.4</v>
@@ -1707,10 +1707,10 @@
         <v>0.4</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I17" s="2">
         <v>50</v>
@@ -1719,7 +1719,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L17" s="2">
         <v>0.4</v>
@@ -1745,10 +1745,10 @@
         <v>0.4</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I18" s="2">
         <v>50</v>
@@ -1757,7 +1757,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L18" s="2">
         <v>0.4</v>
@@ -1783,10 +1783,10 @@
         <v>0.3</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I19" s="2">
         <v>50</v>
@@ -1795,7 +1795,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L19" s="2">
         <v>0.4</v>
@@ -1821,10 +1821,10 @@
         <v>0.3</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I20" s="2">
         <v>50</v>
@@ -1833,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L20" s="2">
         <v>0.4</v>
@@ -1859,10 +1859,10 @@
         <v>0.3</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I21" s="2">
         <v>50</v>
@@ -1871,7 +1871,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L21" s="2">
         <v>0.4</v>
@@ -1897,10 +1897,10 @@
         <v>0.2</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I22" s="2">
         <v>50</v>
@@ -1909,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L22" s="2">
         <v>0.4</v>
@@ -1935,10 +1935,10 @@
         <v>0.4</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I23" s="2">
         <v>50</v>
@@ -1947,7 +1947,7 @@
         <v>1</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L23" s="2">
         <v>0.4</v>
@@ -1973,10 +1973,10 @@
         <v>0.2</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I24" s="2">
         <v>50</v>
@@ -1985,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L24" s="2">
         <v>0.4</v>
@@ -2011,10 +2011,10 @@
         <v>0.5</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I25" s="2">
         <v>50</v>
@@ -2023,7 +2023,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L25" s="2">
         <v>0.4</v>
@@ -2049,10 +2049,10 @@
         <v>0.2</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I26" s="2">
         <v>50</v>
@@ -2061,7 +2061,7 @@
         <v>1</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L26" s="2">
         <v>0.4</v>
@@ -2087,10 +2087,10 @@
         <v>0.2</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I27" s="2">
         <v>50</v>
@@ -2099,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L27" s="2">
         <v>0.4</v>
@@ -2125,10 +2125,10 @@
         <v>0.4</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28" s="2">
         <v>50</v>
@@ -2137,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L28" s="2">
         <v>0.4</v>
@@ -2163,10 +2163,10 @@
         <v>0.2</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I29" s="2">
         <v>50</v>
@@ -2175,7 +2175,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L29" s="2">
         <v>0.4</v>
@@ -2201,10 +2201,10 @@
         <v>0.2</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I30" s="2">
         <v>50</v>
@@ -2213,7 +2213,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L30" s="2">
         <v>0.4</v>
@@ -2239,10 +2239,10 @@
         <v>0.2</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I31" s="2">
         <v>50</v>
@@ -2251,7 +2251,7 @@
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L31" s="2">
         <v>0.4</v>
@@ -2277,10 +2277,10 @@
         <v>0.2</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I32" s="2">
         <v>50</v>
@@ -2289,7 +2289,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L32" s="2">
         <v>0.4</v>
@@ -2315,10 +2315,10 @@
         <v>0.4</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I33" s="2">
         <v>50</v>
@@ -2327,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L33" s="2">
         <v>0.4</v>
@@ -2353,10 +2353,10 @@
         <v>0.1</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I34" s="2">
         <v>50</v>
@@ -2365,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L34" s="2">
         <v>0.4</v>
@@ -2391,10 +2391,10 @@
         <v>0.2</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I35" s="2">
         <v>50</v>
@@ -2403,7 +2403,7 @@
         <v>1</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L35" s="2">
         <v>0.4</v>
@@ -2429,10 +2429,10 @@
         <v>0.2</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I36" s="2">
         <v>50</v>
@@ -2441,7 +2441,7 @@
         <v>1</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L36" s="2">
         <v>0.4</v>
@@ -2467,10 +2467,10 @@
         <v>0.2</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I37" s="2">
         <v>50</v>
@@ -2479,7 +2479,7 @@
         <v>1</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L37" s="2">
         <v>0.4</v>
@@ -2505,10 +2505,10 @@
         <v>0.2</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I38" s="2">
         <v>50</v>
@@ -2517,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L38" s="2">
         <v>0.4</v>
@@ -2543,10 +2543,10 @@
         <v>0.1</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I39" s="2">
         <v>50</v>
@@ -2555,7 +2555,7 @@
         <v>1</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L39" s="2">
         <v>0.4</v>
@@ -2581,10 +2581,10 @@
         <v>0.2</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I40" s="2">
         <v>50</v>
@@ -2593,7 +2593,7 @@
         <v>1</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L40" s="2">
         <v>0.4</v>
@@ -2619,10 +2619,10 @@
         <v>0.2</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I41" s="2">
         <v>50</v>
@@ -2631,7 +2631,7 @@
         <v>1</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L41" s="2">
         <v>0.4</v>
@@ -2657,10 +2657,10 @@
         <v>0.3</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I42" s="2">
         <v>50</v>
@@ -2669,7 +2669,7 @@
         <v>1</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L42" s="2">
         <v>0.4</v>
@@ -2695,10 +2695,10 @@
         <v>0.3</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I43" s="2">
         <v>50</v>
@@ -2707,7 +2707,7 @@
         <v>1</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L43" s="2">
         <v>0.4</v>
@@ -2733,10 +2733,10 @@
         <v>0.2</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I44" s="2">
         <v>50</v>
@@ -2745,7 +2745,7 @@
         <v>1</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L44" s="2">
         <v>0.4</v>
@@ -2771,10 +2771,10 @@
         <v>0.6</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I45" s="2">
         <v>50</v>
@@ -2783,7 +2783,7 @@
         <v>1</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L45" s="2">
         <v>0.4</v>
@@ -2809,10 +2809,10 @@
         <v>0.4</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I46" s="2">
         <v>50</v>
@@ -2821,7 +2821,7 @@
         <v>1</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L46" s="2">
         <v>0.4</v>
@@ -2847,10 +2847,10 @@
         <v>0.3</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I47" s="2">
         <v>50</v>
@@ -2859,7 +2859,7 @@
         <v>1</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L47" s="2">
         <v>0.4</v>
@@ -2885,10 +2885,10 @@
         <v>0.2</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I48" s="2">
         <v>50</v>
@@ -2897,7 +2897,7 @@
         <v>1</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L48" s="2">
         <v>0.4</v>
@@ -2923,10 +2923,10 @@
         <v>0.2</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I49" s="2">
         <v>50</v>
@@ -2935,7 +2935,7 @@
         <v>1</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L49" s="2">
         <v>0.4</v>
@@ -2961,10 +2961,10 @@
         <v>0.2</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I50" s="2">
         <v>50</v>
@@ -2973,7 +2973,7 @@
         <v>1</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L50" s="2">
         <v>0.4</v>
@@ -2999,10 +2999,10 @@
         <v>0.2</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I51" s="2">
         <v>50</v>
@@ -3011,7 +3011,7 @@
         <v>1</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L51" s="2">
         <v>0.4</v>
@@ -3037,10 +3037,10 @@
         <v>1.4</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I52" s="2">
         <v>50</v>
@@ -3049,7 +3049,7 @@
         <v>1</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L52" s="2">
         <v>0.4</v>
@@ -3075,10 +3075,10 @@
         <v>1.5</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I53" s="2">
         <v>50</v>
@@ -3087,7 +3087,7 @@
         <v>1</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L53" s="2">
         <v>0.4</v>
@@ -3113,10 +3113,10 @@
         <v>1.5</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I54" s="2">
         <v>50</v>
@@ -3125,7 +3125,7 @@
         <v>1</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L54" s="2">
         <v>0.4</v>
@@ -3151,10 +3151,10 @@
         <v>1.3</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I55" s="2">
         <v>50</v>
@@ -3163,7 +3163,7 @@
         <v>1</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L55" s="2">
         <v>0.4</v>
@@ -3189,10 +3189,10 @@
         <v>1.5</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I56" s="2">
         <v>50</v>
@@ -3201,7 +3201,7 @@
         <v>1</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L56" s="2">
         <v>0.4</v>
@@ -3227,10 +3227,10 @@
         <v>1.3</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I57" s="2">
         <v>50</v>
@@ -3239,7 +3239,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L57" s="2">
         <v>0.4</v>
@@ -3265,10 +3265,10 @@
         <v>1.6</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I58" s="2">
         <v>50</v>
@@ -3277,7 +3277,7 @@
         <v>1</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L58" s="2">
         <v>0.4</v>
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I59" s="2">
         <v>50</v>
@@ -3315,7 +3315,7 @@
         <v>1</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L59" s="2">
         <v>0.4</v>
@@ -3341,10 +3341,10 @@
         <v>1.3</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I60" s="2">
         <v>50</v>
@@ -3353,7 +3353,7 @@
         <v>1</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L60" s="2">
         <v>0.4</v>
@@ -3379,10 +3379,10 @@
         <v>1.4</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I61" s="2">
         <v>50</v>
@@ -3391,7 +3391,7 @@
         <v>1</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L61" s="2">
         <v>0.4</v>
@@ -3417,10 +3417,10 @@
         <v>1</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I62" s="2">
         <v>50</v>
@@ -3429,7 +3429,7 @@
         <v>1</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L62" s="2">
         <v>0.4</v>
@@ -3455,10 +3455,10 @@
         <v>1.5</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I63" s="2">
         <v>50</v>
@@ -3467,7 +3467,7 @@
         <v>1</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L63" s="2">
         <v>0.4</v>
@@ -3493,10 +3493,10 @@
         <v>1</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I64" s="2">
         <v>50</v>
@@ -3505,7 +3505,7 @@
         <v>1</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L64" s="2">
         <v>0.4</v>
@@ -3531,10 +3531,10 @@
         <v>1.4</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I65" s="2">
         <v>50</v>
@@ -3543,7 +3543,7 @@
         <v>1</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L65" s="2">
         <v>0.4</v>
@@ -3569,10 +3569,10 @@
         <v>1.3</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I66" s="2">
         <v>50</v>
@@ -3581,7 +3581,7 @@
         <v>1</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L66" s="2">
         <v>0.4</v>
@@ -3607,10 +3607,10 @@
         <v>1.4</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I67" s="2">
         <v>50</v>
@@ -3619,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L67" s="2">
         <v>0.4</v>
@@ -3645,10 +3645,10 @@
         <v>1.5</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I68" s="2">
         <v>50</v>
@@ -3657,7 +3657,7 @@
         <v>1</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L68" s="2">
         <v>0.4</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I69" s="2">
         <v>50</v>
@@ -3695,7 +3695,7 @@
         <v>1</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L69" s="2">
         <v>0.4</v>
@@ -3721,10 +3721,10 @@
         <v>1.5</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I70" s="2">
         <v>50</v>
@@ -3733,7 +3733,7 @@
         <v>1</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L70" s="2">
         <v>0.4</v>
@@ -3759,10 +3759,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I71" s="2">
         <v>50</v>
@@ -3771,7 +3771,7 @@
         <v>1</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L71" s="2">
         <v>0.4</v>
@@ -3797,10 +3797,10 @@
         <v>1.8</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I72" s="2">
         <v>50</v>
@@ -3809,7 +3809,7 @@
         <v>1</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L72" s="2">
         <v>0.4</v>
@@ -3835,10 +3835,10 @@
         <v>1.3</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I73" s="2">
         <v>50</v>
@@ -3847,7 +3847,7 @@
         <v>1</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L73" s="2">
         <v>0.4</v>
@@ -3873,10 +3873,10 @@
         <v>1.5</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I74" s="2">
         <v>50</v>
@@ -3885,7 +3885,7 @@
         <v>1</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L74" s="2">
         <v>0.4</v>
@@ -3911,10 +3911,10 @@
         <v>1.2</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I75" s="2">
         <v>50</v>
@@ -3923,7 +3923,7 @@
         <v>1</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L75" s="2">
         <v>0.4</v>
@@ -3949,10 +3949,10 @@
         <v>1.3</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I76" s="2">
         <v>50</v>
@@ -3961,7 +3961,7 @@
         <v>1</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L76" s="2">
         <v>0.4</v>
@@ -3987,10 +3987,10 @@
         <v>1.4</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I77" s="2">
         <v>50</v>
@@ -3999,7 +3999,7 @@
         <v>1</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L77" s="2">
         <v>0.4</v>
@@ -4025,10 +4025,10 @@
         <v>1.4</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I78" s="2">
         <v>50</v>
@@ -4037,7 +4037,7 @@
         <v>1</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L78" s="2">
         <v>0.4</v>
@@ -4063,10 +4063,10 @@
         <v>1.7</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I79" s="2">
         <v>50</v>
@@ -4075,7 +4075,7 @@
         <v>1</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L79" s="2">
         <v>0.4</v>
@@ -4101,10 +4101,10 @@
         <v>1.5</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I80" s="2">
         <v>50</v>
@@ -4113,7 +4113,7 @@
         <v>1</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L80" s="2">
         <v>0.4</v>
@@ -4139,10 +4139,10 @@
         <v>1</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I81" s="2">
         <v>50</v>
@@ -4151,7 +4151,7 @@
         <v>1</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L81" s="2">
         <v>0.4</v>
@@ -4177,10 +4177,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I82" s="2">
         <v>50</v>
@@ -4189,7 +4189,7 @@
         <v>1</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L82" s="2">
         <v>0.4</v>
@@ -4215,10 +4215,10 @@
         <v>1</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I83" s="2">
         <v>50</v>
@@ -4227,7 +4227,7 @@
         <v>1</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L83" s="2">
         <v>0.4</v>
@@ -4253,10 +4253,10 @@
         <v>1.2</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I84" s="2">
         <v>50</v>
@@ -4265,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L84" s="2">
         <v>0.4</v>
@@ -4291,10 +4291,10 @@
         <v>1.6</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I85" s="2">
         <v>50</v>
@@ -4303,7 +4303,7 @@
         <v>1</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L85" s="2">
         <v>0.4</v>
@@ -4329,10 +4329,10 @@
         <v>1.5</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I86" s="2">
         <v>50</v>
@@ -4341,7 +4341,7 @@
         <v>1</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L86" s="2">
         <v>0.4</v>
@@ -4367,10 +4367,10 @@
         <v>1.6</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I87" s="2">
         <v>50</v>
@@ -4379,7 +4379,7 @@
         <v>1</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L87" s="2">
         <v>0.4</v>
@@ -4405,10 +4405,10 @@
         <v>1.5</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I88" s="2">
         <v>50</v>
@@ -4417,7 +4417,7 @@
         <v>1</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L88" s="2">
         <v>0.4</v>
@@ -4443,10 +4443,10 @@
         <v>1.3</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I89" s="2">
         <v>50</v>
@@ -4455,7 +4455,7 @@
         <v>1</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L89" s="2">
         <v>0.4</v>
@@ -4481,10 +4481,10 @@
         <v>1.3</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I90" s="2">
         <v>50</v>
@@ -4493,7 +4493,7 @@
         <v>1</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L90" s="2">
         <v>0.4</v>
@@ -4519,10 +4519,10 @@
         <v>1.3</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I91" s="2">
         <v>50</v>
@@ -4531,7 +4531,7 @@
         <v>1</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L91" s="2">
         <v>0.4</v>
@@ -4557,10 +4557,10 @@
         <v>1.2</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I92" s="2">
         <v>50</v>
@@ -4569,7 +4569,7 @@
         <v>1</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L92" s="2">
         <v>0.4</v>
@@ -4595,10 +4595,10 @@
         <v>1.4</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I93" s="2">
         <v>50</v>
@@ -4607,7 +4607,7 @@
         <v>1</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L93" s="2">
         <v>0.4</v>
@@ -4633,10 +4633,10 @@
         <v>1.2</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I94" s="2">
         <v>50</v>
@@ -4645,7 +4645,7 @@
         <v>1</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L94" s="2">
         <v>0.4</v>
@@ -4671,10 +4671,10 @@
         <v>1</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I95" s="2">
         <v>50</v>
@@ -4683,7 +4683,7 @@
         <v>1</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L95" s="2">
         <v>0.4</v>
@@ -4709,10 +4709,10 @@
         <v>1.3</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I96" s="2">
         <v>50</v>
@@ -4721,7 +4721,7 @@
         <v>1</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L96" s="2">
         <v>0.4</v>
@@ -4747,10 +4747,10 @@
         <v>1.2</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I97" s="2">
         <v>50</v>
@@ -4759,7 +4759,7 @@
         <v>1</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L97" s="2">
         <v>0.4</v>
@@ -4785,10 +4785,10 @@
         <v>1.3</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I98" s="2">
         <v>50</v>
@@ -4797,7 +4797,7 @@
         <v>1</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L98" s="2">
         <v>0.4</v>
@@ -4823,10 +4823,10 @@
         <v>1.3</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I99" s="2">
         <v>50</v>
@@ -4835,7 +4835,7 @@
         <v>1</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L99" s="2">
         <v>0.4</v>
@@ -4861,10 +4861,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I100" s="2">
         <v>50</v>
@@ -4873,7 +4873,7 @@
         <v>1</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L100" s="2">
         <v>0.4</v>
@@ -4899,10 +4899,10 @@
         <v>1.3</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I101" s="2">
         <v>50</v>
@@ -4911,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L101" s="2">
         <v>0.4</v>
@@ -4937,10 +4937,10 @@
         <v>2.5</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I102" s="2">
         <v>50</v>
@@ -4949,7 +4949,7 @@
         <v>1</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L102" s="2">
         <v>0.4</v>
@@ -4975,10 +4975,10 @@
         <v>1.9</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I103" s="2">
         <v>50</v>
@@ -4987,7 +4987,7 @@
         <v>1</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L103" s="2">
         <v>0.4</v>
@@ -5013,10 +5013,10 @@
         <v>2.1</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I104" s="2">
         <v>50</v>
@@ -5025,7 +5025,7 @@
         <v>1</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L104" s="2">
         <v>0.4</v>
@@ -5051,10 +5051,10 @@
         <v>1.8</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I105" s="2">
         <v>50</v>
@@ -5063,7 +5063,7 @@
         <v>1</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L105" s="2">
         <v>0.4</v>
@@ -5089,10 +5089,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I106" s="2">
         <v>50</v>
@@ -5101,7 +5101,7 @@
         <v>1</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L106" s="2">
         <v>0.4</v>
@@ -5127,10 +5127,10 @@
         <v>2.1</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I107" s="2">
         <v>50</v>
@@ -5139,7 +5139,7 @@
         <v>1</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L107" s="2">
         <v>0.4</v>
@@ -5165,10 +5165,10 @@
         <v>1.7</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I108" s="2">
         <v>50</v>
@@ -5177,7 +5177,7 @@
         <v>1</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L108" s="2">
         <v>0.4</v>
@@ -5203,10 +5203,10 @@
         <v>1.8</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I109" s="2">
         <v>50</v>
@@ -5215,7 +5215,7 @@
         <v>1</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L109" s="2">
         <v>0.4</v>
@@ -5241,10 +5241,10 @@
         <v>1.8</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I110" s="2">
         <v>50</v>
@@ -5253,7 +5253,7 @@
         <v>1</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L110" s="2">
         <v>0.4</v>
@@ -5279,10 +5279,10 @@
         <v>2.5</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I111" s="2">
         <v>50</v>
@@ -5291,7 +5291,7 @@
         <v>1</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L111" s="2">
         <v>0.4</v>
@@ -5317,10 +5317,10 @@
         <v>2</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I112" s="2">
         <v>50</v>
@@ -5329,7 +5329,7 @@
         <v>1</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L112" s="2">
         <v>0.4</v>
@@ -5355,10 +5355,10 @@
         <v>1.9</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I113" s="2">
         <v>50</v>
@@ -5367,7 +5367,7 @@
         <v>1</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L113" s="2">
         <v>0.4</v>
@@ -5393,10 +5393,10 @@
         <v>2.1</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I114" s="2">
         <v>50</v>
@@ -5405,7 +5405,7 @@
         <v>1</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L114" s="2">
         <v>0.4</v>
@@ -5431,10 +5431,10 @@
         <v>2</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I115" s="2">
         <v>50</v>
@@ -5443,7 +5443,7 @@
         <v>1</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L115" s="2">
         <v>0.4</v>
@@ -5469,10 +5469,10 @@
         <v>2.4</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I116" s="2">
         <v>50</v>
@@ -5481,7 +5481,7 @@
         <v>1</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L116" s="2">
         <v>0.4</v>
@@ -5507,10 +5507,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I117" s="2">
         <v>50</v>
@@ -5519,7 +5519,7 @@
         <v>1</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L117" s="2">
         <v>0.4</v>
@@ -5545,10 +5545,10 @@
         <v>1.8</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I118" s="2">
         <v>50</v>
@@ -5557,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L118" s="2">
         <v>0.4</v>
@@ -5583,10 +5583,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I119" s="2">
         <v>50</v>
@@ -5595,7 +5595,7 @@
         <v>1</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L119" s="2">
         <v>0.4</v>
@@ -5621,10 +5621,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I120" s="2">
         <v>50</v>
@@ -5633,7 +5633,7 @@
         <v>1</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L120" s="2">
         <v>0.4</v>
@@ -5659,10 +5659,10 @@
         <v>1.5</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I121" s="2">
         <v>50</v>
@@ -5671,7 +5671,7 @@
         <v>1</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L121" s="2">
         <v>0.4</v>
@@ -5697,10 +5697,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I122" s="2">
         <v>50</v>
@@ -5709,7 +5709,7 @@
         <v>1</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L122" s="2">
         <v>0.4</v>
@@ -5735,10 +5735,10 @@
         <v>2</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I123" s="2">
         <v>50</v>
@@ -5747,7 +5747,7 @@
         <v>1</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L123" s="2">
         <v>0.4</v>
@@ -5773,10 +5773,10 @@
         <v>2</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I124" s="2">
         <v>50</v>
@@ -5785,7 +5785,7 @@
         <v>1</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L124" s="2">
         <v>0.4</v>
@@ -5811,10 +5811,10 @@
         <v>1.8</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I125" s="2">
         <v>50</v>
@@ -5823,7 +5823,7 @@
         <v>1</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L125" s="2">
         <v>0.4</v>
@@ -5849,10 +5849,10 @@
         <v>2.1</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I126" s="2">
         <v>50</v>
@@ -5861,7 +5861,7 @@
         <v>1</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L126" s="2">
         <v>0.4</v>
@@ -5887,10 +5887,10 @@
         <v>1.8</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I127" s="2">
         <v>50</v>
@@ -5899,7 +5899,7 @@
         <v>1</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L127" s="2">
         <v>0.4</v>
@@ -5925,10 +5925,10 @@
         <v>1.8</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I128" s="2">
         <v>50</v>
@@ -5937,7 +5937,7 @@
         <v>1</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L128" s="2">
         <v>0.4</v>
@@ -5963,10 +5963,10 @@
         <v>1.8</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I129" s="2">
         <v>50</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L129" s="2">
         <v>0.4</v>
@@ -6001,10 +6001,10 @@
         <v>2.1</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I130" s="2">
         <v>50</v>
@@ -6013,7 +6013,7 @@
         <v>1</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L130" s="2">
         <v>0.4</v>
@@ -6039,10 +6039,10 @@
         <v>1.6</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I131" s="2">
         <v>50</v>
@@ -6051,7 +6051,7 @@
         <v>1</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L131" s="2">
         <v>0.4</v>
@@ -6077,10 +6077,10 @@
         <v>1.9</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I132" s="2">
         <v>50</v>
@@ -6089,7 +6089,7 @@
         <v>1</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L132" s="2">
         <v>0.4</v>
@@ -6115,10 +6115,10 @@
         <v>2</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I133" s="2">
         <v>50</v>
@@ -6127,7 +6127,7 @@
         <v>1</v>
       </c>
       <c r="K133" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L133" s="2">
         <v>0.4</v>
@@ -6153,10 +6153,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I134" s="2">
         <v>50</v>
@@ -6165,7 +6165,7 @@
         <v>1</v>
       </c>
       <c r="K134" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L134" s="2">
         <v>0.4</v>
@@ -6191,10 +6191,10 @@
         <v>1.5</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I135" s="2">
         <v>50</v>
@@ -6203,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="K135" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L135" s="2">
         <v>0.4</v>
@@ -6229,10 +6229,10 @@
         <v>1.4</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I136" s="2">
         <v>50</v>
@@ -6241,7 +6241,7 @@
         <v>1</v>
       </c>
       <c r="K136" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L136" s="2">
         <v>0.4</v>
@@ -6267,10 +6267,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I137" s="2">
         <v>50</v>
@@ -6279,7 +6279,7 @@
         <v>1</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L137" s="2">
         <v>0.4</v>
@@ -6305,10 +6305,10 @@
         <v>2.4</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I138" s="2">
         <v>50</v>
@@ -6317,7 +6317,7 @@
         <v>1</v>
       </c>
       <c r="K138" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L138" s="2">
         <v>0.4</v>
@@ -6343,10 +6343,10 @@
         <v>1.8</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I139" s="2">
         <v>50</v>
@@ -6355,7 +6355,7 @@
         <v>1</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L139" s="2">
         <v>0.4</v>
@@ -6381,10 +6381,10 @@
         <v>1.8</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I140" s="2">
         <v>50</v>
@@ -6393,7 +6393,7 @@
         <v>1</v>
       </c>
       <c r="K140" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L140" s="2">
         <v>0.4</v>
@@ -6419,10 +6419,10 @@
         <v>2.1</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I141" s="2">
         <v>50</v>
@@ -6431,7 +6431,7 @@
         <v>1</v>
       </c>
       <c r="K141" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L141" s="2">
         <v>0.4</v>
@@ -6457,10 +6457,10 @@
         <v>2.4</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I142" s="2">
         <v>50</v>
@@ -6469,7 +6469,7 @@
         <v>1</v>
       </c>
       <c r="K142" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L142" s="2">
         <v>0.4</v>
@@ -6495,10 +6495,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I143" s="2">
         <v>50</v>
@@ -6507,7 +6507,7 @@
         <v>1</v>
       </c>
       <c r="K143" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L143" s="2">
         <v>0.4</v>
@@ -6533,10 +6533,10 @@
         <v>1.9</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I144" s="2">
         <v>50</v>
@@ -6545,7 +6545,7 @@
         <v>1</v>
       </c>
       <c r="K144" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L144" s="2">
         <v>0.4</v>
@@ -6571,10 +6571,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I145" s="2">
         <v>50</v>
@@ -6583,7 +6583,7 @@
         <v>1</v>
       </c>
       <c r="K145" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L145" s="2">
         <v>0.4</v>
@@ -6609,10 +6609,10 @@
         <v>2.5</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I146" s="2">
         <v>50</v>
@@ -6621,7 +6621,7 @@
         <v>1</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L146" s="2">
         <v>0.4</v>
@@ -6647,10 +6647,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I147" s="2">
         <v>50</v>
@@ -6659,7 +6659,7 @@
         <v>1</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L147" s="2">
         <v>0.4</v>
@@ -6685,10 +6685,10 @@
         <v>1.9</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I148" s="2">
         <v>50</v>
@@ -6697,7 +6697,7 @@
         <v>1</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L148" s="2">
         <v>0.4</v>
@@ -6723,10 +6723,10 @@
         <v>2</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I149" s="2">
         <v>50</v>
@@ -6735,7 +6735,7 @@
         <v>1</v>
       </c>
       <c r="K149" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L149" s="2">
         <v>0.4</v>
@@ -6761,10 +6761,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I150" s="2">
         <v>50</v>
@@ -6773,7 +6773,7 @@
         <v>1</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L150" s="2">
         <v>0.4</v>
@@ -6799,10 +6799,10 @@
         <v>1.8</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I151" s="2">
         <v>50</v>
@@ -6811,7 +6811,7 @@
         <v>1</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L151" s="2">
         <v>0.4</v>

--- a/DataFileSamples/Iris.xlsx
+++ b/DataFileSamples/Iris.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\GeoPyTool\DataFileSamples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF2B5EB-3A81-4772-9F3B-1556AA3B8324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4540DBE-4709-4AF3-AC1F-3003E9AE110F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2352" yWindow="3060" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="2604" windowWidth="17280" windowHeight="9408" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Iris" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="20">
   <si>
     <t>setosa</t>
   </si>
@@ -1071,7 +1072,7 @@
   <dimension ref="A1:L151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1081,10 +1082,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -6822,4 +6823,5758 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FEE005-49EC-4301-B09D-B14D66958E7E}">
+  <dimension ref="A1:L151"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L151"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D2">
+        <v>3.5</v>
+      </c>
+      <c r="E2">
+        <v>1.4</v>
+      </c>
+      <c r="F2">
+        <v>0.2</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2">
+        <v>50</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>1.4</v>
+      </c>
+      <c r="F3">
+        <v>0.2</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2">
+        <v>50</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>4.7</v>
+      </c>
+      <c r="D4">
+        <v>3.2</v>
+      </c>
+      <c r="E4">
+        <v>1.3</v>
+      </c>
+      <c r="F4">
+        <v>0.2</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="2">
+        <v>50</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D5">
+        <v>3.1</v>
+      </c>
+      <c r="E5">
+        <v>1.5</v>
+      </c>
+      <c r="F5">
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="2">
+        <v>50</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>3.6</v>
+      </c>
+      <c r="E6">
+        <v>1.4</v>
+      </c>
+      <c r="F6">
+        <v>0.2</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="2">
+        <v>50</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>5.4</v>
+      </c>
+      <c r="D7">
+        <v>3.9</v>
+      </c>
+      <c r="E7">
+        <v>1.7</v>
+      </c>
+      <c r="F7">
+        <v>0.4</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="2">
+        <v>50</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D8">
+        <v>3.4</v>
+      </c>
+      <c r="E8">
+        <v>1.4</v>
+      </c>
+      <c r="F8">
+        <v>0.3</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="2">
+        <v>50</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>3.4</v>
+      </c>
+      <c r="E9">
+        <v>1.5</v>
+      </c>
+      <c r="F9">
+        <v>0.2</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="2">
+        <v>50</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D10">
+        <v>2.9</v>
+      </c>
+      <c r="E10">
+        <v>1.4</v>
+      </c>
+      <c r="F10">
+        <v>0.2</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="2">
+        <v>50</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D11">
+        <v>3.1</v>
+      </c>
+      <c r="E11">
+        <v>1.5</v>
+      </c>
+      <c r="F11">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="2">
+        <v>50</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>5.4</v>
+      </c>
+      <c r="D12">
+        <v>3.7</v>
+      </c>
+      <c r="E12">
+        <v>1.5</v>
+      </c>
+      <c r="F12">
+        <v>0.2</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="2">
+        <v>50</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>4.8</v>
+      </c>
+      <c r="D13">
+        <v>3.4</v>
+      </c>
+      <c r="E13">
+        <v>1.6</v>
+      </c>
+      <c r="F13">
+        <v>0.2</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="2">
+        <v>50</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>4.8</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>1.4</v>
+      </c>
+      <c r="F14">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="2">
+        <v>50</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>4.3</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F15">
+        <v>0.1</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="2">
+        <v>50</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>5.8</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>1.2</v>
+      </c>
+      <c r="F16">
+        <v>0.2</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="2">
+        <v>50</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>5.7</v>
+      </c>
+      <c r="D17">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E17">
+        <v>1.5</v>
+      </c>
+      <c r="F17">
+        <v>0.4</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="2">
+        <v>50</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>5.4</v>
+      </c>
+      <c r="D18">
+        <v>3.9</v>
+      </c>
+      <c r="E18">
+        <v>1.3</v>
+      </c>
+      <c r="F18">
+        <v>0.4</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="2">
+        <v>50</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D19">
+        <v>3.5</v>
+      </c>
+      <c r="E19">
+        <v>1.4</v>
+      </c>
+      <c r="F19">
+        <v>0.3</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="2">
+        <v>50</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>5.7</v>
+      </c>
+      <c r="D20">
+        <v>3.8</v>
+      </c>
+      <c r="E20">
+        <v>1.7</v>
+      </c>
+      <c r="F20">
+        <v>0.3</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="2">
+        <v>50</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D21">
+        <v>3.8</v>
+      </c>
+      <c r="E21">
+        <v>1.5</v>
+      </c>
+      <c r="F21">
+        <v>0.3</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="2">
+        <v>50</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>5.4</v>
+      </c>
+      <c r="D22">
+        <v>3.4</v>
+      </c>
+      <c r="E22">
+        <v>1.7</v>
+      </c>
+      <c r="F22">
+        <v>0.2</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="2">
+        <v>50</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D23">
+        <v>3.7</v>
+      </c>
+      <c r="E23">
+        <v>1.5</v>
+      </c>
+      <c r="F23">
+        <v>0.4</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="2">
+        <v>50</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D24">
+        <v>3.6</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.2</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="2">
+        <v>50</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D25">
+        <v>3.3</v>
+      </c>
+      <c r="E25">
+        <v>1.7</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="2">
+        <v>50</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>4.8</v>
+      </c>
+      <c r="D26">
+        <v>3.4</v>
+      </c>
+      <c r="E26">
+        <v>1.9</v>
+      </c>
+      <c r="F26">
+        <v>0.2</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="2">
+        <v>50</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>1.6</v>
+      </c>
+      <c r="F27">
+        <v>0.2</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="2">
+        <v>50</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>3.4</v>
+      </c>
+      <c r="E28">
+        <v>1.6</v>
+      </c>
+      <c r="F28">
+        <v>0.4</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="2">
+        <v>50</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>5.2</v>
+      </c>
+      <c r="D29">
+        <v>3.5</v>
+      </c>
+      <c r="E29">
+        <v>1.5</v>
+      </c>
+      <c r="F29">
+        <v>0.2</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="2">
+        <v>50</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>5.2</v>
+      </c>
+      <c r="D30">
+        <v>3.4</v>
+      </c>
+      <c r="E30">
+        <v>1.4</v>
+      </c>
+      <c r="F30">
+        <v>0.2</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="2">
+        <v>50</v>
+      </c>
+      <c r="J30" s="2">
+        <v>1</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>4.7</v>
+      </c>
+      <c r="D31">
+        <v>3.2</v>
+      </c>
+      <c r="E31">
+        <v>1.6</v>
+      </c>
+      <c r="F31">
+        <v>0.2</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="2">
+        <v>50</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>4.8</v>
+      </c>
+      <c r="D32">
+        <v>3.1</v>
+      </c>
+      <c r="E32">
+        <v>1.6</v>
+      </c>
+      <c r="F32">
+        <v>0.2</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="2">
+        <v>50</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>5.4</v>
+      </c>
+      <c r="D33">
+        <v>3.4</v>
+      </c>
+      <c r="E33">
+        <v>1.5</v>
+      </c>
+      <c r="F33">
+        <v>0.4</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="2">
+        <v>50</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>5.2</v>
+      </c>
+      <c r="D34">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E34">
+        <v>1.5</v>
+      </c>
+      <c r="F34">
+        <v>0.1</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="2">
+        <v>50</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>5.5</v>
+      </c>
+      <c r="D35">
+        <v>4.2</v>
+      </c>
+      <c r="E35">
+        <v>1.4</v>
+      </c>
+      <c r="F35">
+        <v>0.2</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="2">
+        <v>50</v>
+      </c>
+      <c r="J35" s="2">
+        <v>1</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D36">
+        <v>3.1</v>
+      </c>
+      <c r="E36">
+        <v>1.5</v>
+      </c>
+      <c r="F36">
+        <v>0.2</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="2">
+        <v>50</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>3.2</v>
+      </c>
+      <c r="E37">
+        <v>1.2</v>
+      </c>
+      <c r="F37">
+        <v>0.2</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="2">
+        <v>50</v>
+      </c>
+      <c r="J37" s="2">
+        <v>1</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>5.5</v>
+      </c>
+      <c r="D38">
+        <v>3.5</v>
+      </c>
+      <c r="E38">
+        <v>1.3</v>
+      </c>
+      <c r="F38">
+        <v>0.2</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="2">
+        <v>50</v>
+      </c>
+      <c r="J38" s="2">
+        <v>1</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D39">
+        <v>3.6</v>
+      </c>
+      <c r="E39">
+        <v>1.4</v>
+      </c>
+      <c r="F39">
+        <v>0.1</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="2">
+        <v>50</v>
+      </c>
+      <c r="J39" s="2">
+        <v>1</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>1.3</v>
+      </c>
+      <c r="F40">
+        <v>0.2</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="2">
+        <v>50</v>
+      </c>
+      <c r="J40" s="2">
+        <v>1</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D41">
+        <v>3.4</v>
+      </c>
+      <c r="E41">
+        <v>1.5</v>
+      </c>
+      <c r="F41">
+        <v>0.2</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="2">
+        <v>50</v>
+      </c>
+      <c r="J41" s="2">
+        <v>1</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>3.5</v>
+      </c>
+      <c r="E42">
+        <v>1.3</v>
+      </c>
+      <c r="F42">
+        <v>0.3</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="2">
+        <v>50</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>4.5</v>
+      </c>
+      <c r="D43">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E43">
+        <v>1.3</v>
+      </c>
+      <c r="F43">
+        <v>0.3</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="2">
+        <v>50</v>
+      </c>
+      <c r="J43" s="2">
+        <v>1</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D44">
+        <v>3.2</v>
+      </c>
+      <c r="E44">
+        <v>1.3</v>
+      </c>
+      <c r="F44">
+        <v>0.2</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" s="2">
+        <v>50</v>
+      </c>
+      <c r="J44" s="2">
+        <v>1</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>3.5</v>
+      </c>
+      <c r="E45">
+        <v>1.6</v>
+      </c>
+      <c r="F45">
+        <v>0.6</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" s="2">
+        <v>50</v>
+      </c>
+      <c r="J45" s="2">
+        <v>1</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D46">
+        <v>3.8</v>
+      </c>
+      <c r="E46">
+        <v>1.9</v>
+      </c>
+      <c r="F46">
+        <v>0.4</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" s="2">
+        <v>50</v>
+      </c>
+      <c r="J46" s="2">
+        <v>1</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>4.8</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>1.4</v>
+      </c>
+      <c r="F47">
+        <v>0.3</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="2">
+        <v>50</v>
+      </c>
+      <c r="J47" s="2">
+        <v>1</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D48">
+        <v>3.8</v>
+      </c>
+      <c r="E48">
+        <v>1.6</v>
+      </c>
+      <c r="F48">
+        <v>0.2</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" s="2">
+        <v>50</v>
+      </c>
+      <c r="J48" s="2">
+        <v>1</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L48" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D49">
+        <v>3.2</v>
+      </c>
+      <c r="E49">
+        <v>1.4</v>
+      </c>
+      <c r="F49">
+        <v>0.2</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" s="2">
+        <v>50</v>
+      </c>
+      <c r="J49" s="2">
+        <v>1</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L49" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>5.3</v>
+      </c>
+      <c r="D50">
+        <v>3.7</v>
+      </c>
+      <c r="E50">
+        <v>1.5</v>
+      </c>
+      <c r="F50">
+        <v>0.2</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I50" s="2">
+        <v>50</v>
+      </c>
+      <c r="J50" s="2">
+        <v>1</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L50" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>3.3</v>
+      </c>
+      <c r="E51">
+        <v>1.4</v>
+      </c>
+      <c r="F51">
+        <v>0.2</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I51" s="2">
+        <v>50</v>
+      </c>
+      <c r="J51" s="2">
+        <v>1</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L51" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>7</v>
+      </c>
+      <c r="D52">
+        <v>3.2</v>
+      </c>
+      <c r="E52">
+        <v>4.7</v>
+      </c>
+      <c r="F52">
+        <v>1.4</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" s="2">
+        <v>50</v>
+      </c>
+      <c r="J52" s="2">
+        <v>1</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L52" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>6.4</v>
+      </c>
+      <c r="D53">
+        <v>3.2</v>
+      </c>
+      <c r="E53">
+        <v>4.5</v>
+      </c>
+      <c r="F53">
+        <v>1.5</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" s="2">
+        <v>50</v>
+      </c>
+      <c r="J53" s="2">
+        <v>1</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L53" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>6.9</v>
+      </c>
+      <c r="D54">
+        <v>3.1</v>
+      </c>
+      <c r="E54">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F54">
+        <v>1.5</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" s="2">
+        <v>50</v>
+      </c>
+      <c r="J54" s="2">
+        <v>1</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L54" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>5.5</v>
+      </c>
+      <c r="D55">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="F55">
+        <v>1.3</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" s="2">
+        <v>50</v>
+      </c>
+      <c r="J55" s="2">
+        <v>1</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L55" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>6.5</v>
+      </c>
+      <c r="D56">
+        <v>2.8</v>
+      </c>
+      <c r="E56">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F56">
+        <v>1.5</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" s="2">
+        <v>50</v>
+      </c>
+      <c r="J56" s="2">
+        <v>1</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L56" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>5.7</v>
+      </c>
+      <c r="D57">
+        <v>2.8</v>
+      </c>
+      <c r="E57">
+        <v>4.5</v>
+      </c>
+      <c r="F57">
+        <v>1.3</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" s="2">
+        <v>50</v>
+      </c>
+      <c r="J57" s="2">
+        <v>1</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L57" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>6.3</v>
+      </c>
+      <c r="D58">
+        <v>3.3</v>
+      </c>
+      <c r="E58">
+        <v>4.7</v>
+      </c>
+      <c r="F58">
+        <v>1.6</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" s="2">
+        <v>50</v>
+      </c>
+      <c r="J58" s="2">
+        <v>1</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L58" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D59">
+        <v>2.4</v>
+      </c>
+      <c r="E59">
+        <v>3.3</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I59" s="2">
+        <v>50</v>
+      </c>
+      <c r="J59" s="2">
+        <v>1</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L59" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>6.6</v>
+      </c>
+      <c r="D60">
+        <v>2.9</v>
+      </c>
+      <c r="E60">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F60">
+        <v>1.3</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I60" s="2">
+        <v>50</v>
+      </c>
+      <c r="J60" s="2">
+        <v>1</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L60" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>5.2</v>
+      </c>
+      <c r="D61">
+        <v>2.7</v>
+      </c>
+      <c r="E61">
+        <v>3.9</v>
+      </c>
+      <c r="F61">
+        <v>1.4</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I61" s="2">
+        <v>50</v>
+      </c>
+      <c r="J61" s="2">
+        <v>1</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L61" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>5</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>3.5</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I62" s="2">
+        <v>50</v>
+      </c>
+      <c r="J62" s="2">
+        <v>1</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L62" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>5.9</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63">
+        <v>4.2</v>
+      </c>
+      <c r="F63">
+        <v>1.5</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I63" s="2">
+        <v>50</v>
+      </c>
+      <c r="J63" s="2">
+        <v>1</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L63" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>6</v>
+      </c>
+      <c r="D64">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E64">
+        <v>4</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I64" s="2">
+        <v>50</v>
+      </c>
+      <c r="J64" s="2">
+        <v>1</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L64" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>6.1</v>
+      </c>
+      <c r="D65">
+        <v>2.9</v>
+      </c>
+      <c r="E65">
+        <v>4.7</v>
+      </c>
+      <c r="F65">
+        <v>1.4</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I65" s="2">
+        <v>50</v>
+      </c>
+      <c r="J65" s="2">
+        <v>1</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L65" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>5.6</v>
+      </c>
+      <c r="D66">
+        <v>2.9</v>
+      </c>
+      <c r="E66">
+        <v>3.6</v>
+      </c>
+      <c r="F66">
+        <v>1.3</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I66" s="2">
+        <v>50</v>
+      </c>
+      <c r="J66" s="2">
+        <v>1</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L66" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>6.7</v>
+      </c>
+      <c r="D67">
+        <v>3.1</v>
+      </c>
+      <c r="E67">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F67">
+        <v>1.4</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I67" s="2">
+        <v>50</v>
+      </c>
+      <c r="J67" s="2">
+        <v>1</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L67" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>5.6</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>4.5</v>
+      </c>
+      <c r="F68">
+        <v>1.5</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I68" s="2">
+        <v>50</v>
+      </c>
+      <c r="J68" s="2">
+        <v>1</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L68" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>5.8</v>
+      </c>
+      <c r="D69">
+        <v>2.7</v>
+      </c>
+      <c r="E69">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I69" s="2">
+        <v>50</v>
+      </c>
+      <c r="J69" s="2">
+        <v>1</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L69" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>6.2</v>
+      </c>
+      <c r="D70">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E70">
+        <v>4.5</v>
+      </c>
+      <c r="F70">
+        <v>1.5</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I70" s="2">
+        <v>50</v>
+      </c>
+      <c r="J70" s="2">
+        <v>1</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L70" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>5.6</v>
+      </c>
+      <c r="D71">
+        <v>2.5</v>
+      </c>
+      <c r="E71">
+        <v>3.9</v>
+      </c>
+      <c r="F71">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I71" s="2">
+        <v>50</v>
+      </c>
+      <c r="J71" s="2">
+        <v>1</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L71" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>5.9</v>
+      </c>
+      <c r="D72">
+        <v>3.2</v>
+      </c>
+      <c r="E72">
+        <v>4.8</v>
+      </c>
+      <c r="F72">
+        <v>1.8</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I72" s="2">
+        <v>50</v>
+      </c>
+      <c r="J72" s="2">
+        <v>1</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L72" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>6.1</v>
+      </c>
+      <c r="D73">
+        <v>2.8</v>
+      </c>
+      <c r="E73">
+        <v>4</v>
+      </c>
+      <c r="F73">
+        <v>1.3</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I73" s="2">
+        <v>50</v>
+      </c>
+      <c r="J73" s="2">
+        <v>1</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L73" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>6.3</v>
+      </c>
+      <c r="D74">
+        <v>2.5</v>
+      </c>
+      <c r="E74">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F74">
+        <v>1.5</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I74" s="2">
+        <v>50</v>
+      </c>
+      <c r="J74" s="2">
+        <v>1</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L74" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>6.1</v>
+      </c>
+      <c r="D75">
+        <v>2.8</v>
+      </c>
+      <c r="E75">
+        <v>4.7</v>
+      </c>
+      <c r="F75">
+        <v>1.2</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I75" s="2">
+        <v>50</v>
+      </c>
+      <c r="J75" s="2">
+        <v>1</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L75" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>6.4</v>
+      </c>
+      <c r="D76">
+        <v>2.9</v>
+      </c>
+      <c r="E76">
+        <v>4.3</v>
+      </c>
+      <c r="F76">
+        <v>1.3</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I76" s="2">
+        <v>50</v>
+      </c>
+      <c r="J76" s="2">
+        <v>1</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L76" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>6.6</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F77">
+        <v>1.4</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I77" s="2">
+        <v>50</v>
+      </c>
+      <c r="J77" s="2">
+        <v>1</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L77" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>6.8</v>
+      </c>
+      <c r="D78">
+        <v>2.8</v>
+      </c>
+      <c r="E78">
+        <v>4.8</v>
+      </c>
+      <c r="F78">
+        <v>1.4</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I78" s="2">
+        <v>50</v>
+      </c>
+      <c r="J78" s="2">
+        <v>1</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L78" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>6.7</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79">
+        <v>5</v>
+      </c>
+      <c r="F79">
+        <v>1.7</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I79" s="2">
+        <v>50</v>
+      </c>
+      <c r="J79" s="2">
+        <v>1</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L79" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>6</v>
+      </c>
+      <c r="D80">
+        <v>2.9</v>
+      </c>
+      <c r="E80">
+        <v>4.5</v>
+      </c>
+      <c r="F80">
+        <v>1.5</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I80" s="2">
+        <v>50</v>
+      </c>
+      <c r="J80" s="2">
+        <v>1</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L80" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>5.7</v>
+      </c>
+      <c r="D81">
+        <v>2.6</v>
+      </c>
+      <c r="E81">
+        <v>3.5</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I81" s="2">
+        <v>50</v>
+      </c>
+      <c r="J81" s="2">
+        <v>1</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L81" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>5.5</v>
+      </c>
+      <c r="D82">
+        <v>2.4</v>
+      </c>
+      <c r="E82">
+        <v>3.8</v>
+      </c>
+      <c r="F82">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I82" s="2">
+        <v>50</v>
+      </c>
+      <c r="J82" s="2">
+        <v>1</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L82" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>5.5</v>
+      </c>
+      <c r="D83">
+        <v>2.4</v>
+      </c>
+      <c r="E83">
+        <v>3.7</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I83" s="2">
+        <v>50</v>
+      </c>
+      <c r="J83" s="2">
+        <v>1</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L83" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>5.8</v>
+      </c>
+      <c r="D84">
+        <v>2.7</v>
+      </c>
+      <c r="E84">
+        <v>3.9</v>
+      </c>
+      <c r="F84">
+        <v>1.2</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I84" s="2">
+        <v>50</v>
+      </c>
+      <c r="J84" s="2">
+        <v>1</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L84" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>6</v>
+      </c>
+      <c r="D85">
+        <v>2.7</v>
+      </c>
+      <c r="E85">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F85">
+        <v>1.6</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I85" s="2">
+        <v>50</v>
+      </c>
+      <c r="J85" s="2">
+        <v>1</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L85" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>5.4</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86">
+        <v>4.5</v>
+      </c>
+      <c r="F86">
+        <v>1.5</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I86" s="2">
+        <v>50</v>
+      </c>
+      <c r="J86" s="2">
+        <v>1</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L86" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>6</v>
+      </c>
+      <c r="D87">
+        <v>3.4</v>
+      </c>
+      <c r="E87">
+        <v>4.5</v>
+      </c>
+      <c r="F87">
+        <v>1.6</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I87" s="2">
+        <v>50</v>
+      </c>
+      <c r="J87" s="2">
+        <v>1</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L87" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>6.7</v>
+      </c>
+      <c r="D88">
+        <v>3.1</v>
+      </c>
+      <c r="E88">
+        <v>4.7</v>
+      </c>
+      <c r="F88">
+        <v>1.5</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I88" s="2">
+        <v>50</v>
+      </c>
+      <c r="J88" s="2">
+        <v>1</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L88" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>6.3</v>
+      </c>
+      <c r="D89">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E89">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F89">
+        <v>1.3</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I89" s="2">
+        <v>50</v>
+      </c>
+      <c r="J89" s="2">
+        <v>1</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L89" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>5.6</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
+      <c r="E90">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F90">
+        <v>1.3</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I90" s="2">
+        <v>50</v>
+      </c>
+      <c r="J90" s="2">
+        <v>1</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L90" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>5.5</v>
+      </c>
+      <c r="D91">
+        <v>2.5</v>
+      </c>
+      <c r="E91">
+        <v>4</v>
+      </c>
+      <c r="F91">
+        <v>1.3</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I91" s="2">
+        <v>50</v>
+      </c>
+      <c r="J91" s="2">
+        <v>1</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L91" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>5.5</v>
+      </c>
+      <c r="D92">
+        <v>2.6</v>
+      </c>
+      <c r="E92">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F92">
+        <v>1.2</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I92" s="2">
+        <v>50</v>
+      </c>
+      <c r="J92" s="2">
+        <v>1</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L92" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>6.1</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
+      </c>
+      <c r="E93">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F93">
+        <v>1.4</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I93" s="2">
+        <v>50</v>
+      </c>
+      <c r="J93" s="2">
+        <v>1</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L93" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>5.8</v>
+      </c>
+      <c r="D94">
+        <v>2.6</v>
+      </c>
+      <c r="E94">
+        <v>4</v>
+      </c>
+      <c r="F94">
+        <v>1.2</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I94" s="2">
+        <v>50</v>
+      </c>
+      <c r="J94" s="2">
+        <v>1</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L94" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>5</v>
+      </c>
+      <c r="D95">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E95">
+        <v>3.3</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I95" s="2">
+        <v>50</v>
+      </c>
+      <c r="J95" s="2">
+        <v>1</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L95" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>5.6</v>
+      </c>
+      <c r="D96">
+        <v>2.7</v>
+      </c>
+      <c r="E96">
+        <v>4.2</v>
+      </c>
+      <c r="F96">
+        <v>1.3</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I96" s="2">
+        <v>50</v>
+      </c>
+      <c r="J96" s="2">
+        <v>1</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L96" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>5.7</v>
+      </c>
+      <c r="D97">
+        <v>3</v>
+      </c>
+      <c r="E97">
+        <v>4.2</v>
+      </c>
+      <c r="F97">
+        <v>1.2</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I97" s="2">
+        <v>50</v>
+      </c>
+      <c r="J97" s="2">
+        <v>1</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L97" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>5.7</v>
+      </c>
+      <c r="D98">
+        <v>2.9</v>
+      </c>
+      <c r="E98">
+        <v>4.2</v>
+      </c>
+      <c r="F98">
+        <v>1.3</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I98" s="2">
+        <v>50</v>
+      </c>
+      <c r="J98" s="2">
+        <v>1</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L98" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>6.2</v>
+      </c>
+      <c r="D99">
+        <v>2.9</v>
+      </c>
+      <c r="E99">
+        <v>4.3</v>
+      </c>
+      <c r="F99">
+        <v>1.3</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I99" s="2">
+        <v>50</v>
+      </c>
+      <c r="J99" s="2">
+        <v>1</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L99" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D100">
+        <v>2.5</v>
+      </c>
+      <c r="E100">
+        <v>3</v>
+      </c>
+      <c r="F100">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I100" s="2">
+        <v>50</v>
+      </c>
+      <c r="J100" s="2">
+        <v>1</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L100" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>5.7</v>
+      </c>
+      <c r="D101">
+        <v>2.8</v>
+      </c>
+      <c r="E101">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F101">
+        <v>1.3</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I101" s="2">
+        <v>50</v>
+      </c>
+      <c r="J101" s="2">
+        <v>1</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L101" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2</v>
+      </c>
+      <c r="B102" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102">
+        <v>6.3</v>
+      </c>
+      <c r="D102">
+        <v>3.3</v>
+      </c>
+      <c r="E102">
+        <v>6</v>
+      </c>
+      <c r="F102">
+        <v>2.5</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I102" s="2">
+        <v>50</v>
+      </c>
+      <c r="J102" s="2">
+        <v>1</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L102" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>2</v>
+      </c>
+      <c r="B103" t="s">
+        <v>2</v>
+      </c>
+      <c r="C103">
+        <v>5.8</v>
+      </c>
+      <c r="D103">
+        <v>2.7</v>
+      </c>
+      <c r="E103">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F103">
+        <v>1.9</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I103" s="2">
+        <v>50</v>
+      </c>
+      <c r="J103" s="2">
+        <v>1</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L103" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>2</v>
+      </c>
+      <c r="B104" t="s">
+        <v>2</v>
+      </c>
+      <c r="C104">
+        <v>7.1</v>
+      </c>
+      <c r="D104">
+        <v>3</v>
+      </c>
+      <c r="E104">
+        <v>5.9</v>
+      </c>
+      <c r="F104">
+        <v>2.1</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I104" s="2">
+        <v>50</v>
+      </c>
+      <c r="J104" s="2">
+        <v>1</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L104" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2</v>
+      </c>
+      <c r="B105" t="s">
+        <v>2</v>
+      </c>
+      <c r="C105">
+        <v>6.3</v>
+      </c>
+      <c r="D105">
+        <v>2.9</v>
+      </c>
+      <c r="E105">
+        <v>5.6</v>
+      </c>
+      <c r="F105">
+        <v>1.8</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I105" s="2">
+        <v>50</v>
+      </c>
+      <c r="J105" s="2">
+        <v>1</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L105" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2</v>
+      </c>
+      <c r="B106" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106">
+        <v>6.5</v>
+      </c>
+      <c r="D106">
+        <v>3</v>
+      </c>
+      <c r="E106">
+        <v>5.8</v>
+      </c>
+      <c r="F106">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I106" s="2">
+        <v>50</v>
+      </c>
+      <c r="J106" s="2">
+        <v>1</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L106" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>2</v>
+      </c>
+      <c r="B107" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107">
+        <v>7.6</v>
+      </c>
+      <c r="D107">
+        <v>3</v>
+      </c>
+      <c r="E107">
+        <v>6.6</v>
+      </c>
+      <c r="F107">
+        <v>2.1</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I107" s="2">
+        <v>50</v>
+      </c>
+      <c r="J107" s="2">
+        <v>1</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L107" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>2</v>
+      </c>
+      <c r="B108" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D108">
+        <v>2.5</v>
+      </c>
+      <c r="E108">
+        <v>4.5</v>
+      </c>
+      <c r="F108">
+        <v>1.7</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I108" s="2">
+        <v>50</v>
+      </c>
+      <c r="J108" s="2">
+        <v>1</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L108" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>2</v>
+      </c>
+      <c r="B109" t="s">
+        <v>2</v>
+      </c>
+      <c r="C109">
+        <v>7.3</v>
+      </c>
+      <c r="D109">
+        <v>2.9</v>
+      </c>
+      <c r="E109">
+        <v>6.3</v>
+      </c>
+      <c r="F109">
+        <v>1.8</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I109" s="2">
+        <v>50</v>
+      </c>
+      <c r="J109" s="2">
+        <v>1</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L109" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>2</v>
+      </c>
+      <c r="B110" t="s">
+        <v>2</v>
+      </c>
+      <c r="C110">
+        <v>6.7</v>
+      </c>
+      <c r="D110">
+        <v>2.5</v>
+      </c>
+      <c r="E110">
+        <v>5.8</v>
+      </c>
+      <c r="F110">
+        <v>1.8</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I110" s="2">
+        <v>50</v>
+      </c>
+      <c r="J110" s="2">
+        <v>1</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L110" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>2</v>
+      </c>
+      <c r="B111" t="s">
+        <v>2</v>
+      </c>
+      <c r="C111">
+        <v>7.2</v>
+      </c>
+      <c r="D111">
+        <v>3.6</v>
+      </c>
+      <c r="E111">
+        <v>6.1</v>
+      </c>
+      <c r="F111">
+        <v>2.5</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I111" s="2">
+        <v>50</v>
+      </c>
+      <c r="J111" s="2">
+        <v>1</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L111" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>2</v>
+      </c>
+      <c r="B112" t="s">
+        <v>2</v>
+      </c>
+      <c r="C112">
+        <v>6.5</v>
+      </c>
+      <c r="D112">
+        <v>3.2</v>
+      </c>
+      <c r="E112">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F112">
+        <v>2</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I112" s="2">
+        <v>50</v>
+      </c>
+      <c r="J112" s="2">
+        <v>1</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L112" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>2</v>
+      </c>
+      <c r="B113" t="s">
+        <v>2</v>
+      </c>
+      <c r="C113">
+        <v>6.4</v>
+      </c>
+      <c r="D113">
+        <v>2.7</v>
+      </c>
+      <c r="E113">
+        <v>5.3</v>
+      </c>
+      <c r="F113">
+        <v>1.9</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I113" s="2">
+        <v>50</v>
+      </c>
+      <c r="J113" s="2">
+        <v>1</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L113" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>2</v>
+      </c>
+      <c r="B114" t="s">
+        <v>2</v>
+      </c>
+      <c r="C114">
+        <v>6.8</v>
+      </c>
+      <c r="D114">
+        <v>3</v>
+      </c>
+      <c r="E114">
+        <v>5.5</v>
+      </c>
+      <c r="F114">
+        <v>2.1</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I114" s="2">
+        <v>50</v>
+      </c>
+      <c r="J114" s="2">
+        <v>1</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L114" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>2</v>
+      </c>
+      <c r="B115" t="s">
+        <v>2</v>
+      </c>
+      <c r="C115">
+        <v>5.7</v>
+      </c>
+      <c r="D115">
+        <v>2.5</v>
+      </c>
+      <c r="E115">
+        <v>5</v>
+      </c>
+      <c r="F115">
+        <v>2</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I115" s="2">
+        <v>50</v>
+      </c>
+      <c r="J115" s="2">
+        <v>1</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L115" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>2</v>
+      </c>
+      <c r="B116" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116">
+        <v>5.8</v>
+      </c>
+      <c r="D116">
+        <v>2.8</v>
+      </c>
+      <c r="E116">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F116">
+        <v>2.4</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I116" s="2">
+        <v>50</v>
+      </c>
+      <c r="J116" s="2">
+        <v>1</v>
+      </c>
+      <c r="K116" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L116" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>2</v>
+      </c>
+      <c r="B117" t="s">
+        <v>2</v>
+      </c>
+      <c r="C117">
+        <v>6.4</v>
+      </c>
+      <c r="D117">
+        <v>3.2</v>
+      </c>
+      <c r="E117">
+        <v>5.3</v>
+      </c>
+      <c r="F117">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I117" s="2">
+        <v>50</v>
+      </c>
+      <c r="J117" s="2">
+        <v>1</v>
+      </c>
+      <c r="K117" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L117" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>2</v>
+      </c>
+      <c r="B118" t="s">
+        <v>2</v>
+      </c>
+      <c r="C118">
+        <v>6.5</v>
+      </c>
+      <c r="D118">
+        <v>3</v>
+      </c>
+      <c r="E118">
+        <v>5.5</v>
+      </c>
+      <c r="F118">
+        <v>1.8</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I118" s="2">
+        <v>50</v>
+      </c>
+      <c r="J118" s="2">
+        <v>1</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L118" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>2</v>
+      </c>
+      <c r="B119" t="s">
+        <v>2</v>
+      </c>
+      <c r="C119">
+        <v>7.7</v>
+      </c>
+      <c r="D119">
+        <v>3.8</v>
+      </c>
+      <c r="E119">
+        <v>6.7</v>
+      </c>
+      <c r="F119">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I119" s="2">
+        <v>50</v>
+      </c>
+      <c r="J119" s="2">
+        <v>1</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L119" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>2</v>
+      </c>
+      <c r="B120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C120">
+        <v>7.7</v>
+      </c>
+      <c r="D120">
+        <v>2.6</v>
+      </c>
+      <c r="E120">
+        <v>6.9</v>
+      </c>
+      <c r="F120">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I120" s="2">
+        <v>50</v>
+      </c>
+      <c r="J120" s="2">
+        <v>1</v>
+      </c>
+      <c r="K120" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L120" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>2</v>
+      </c>
+      <c r="B121" t="s">
+        <v>2</v>
+      </c>
+      <c r="C121">
+        <v>6</v>
+      </c>
+      <c r="D121">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E121">
+        <v>5</v>
+      </c>
+      <c r="F121">
+        <v>1.5</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I121" s="2">
+        <v>50</v>
+      </c>
+      <c r="J121" s="2">
+        <v>1</v>
+      </c>
+      <c r="K121" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L121" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>2</v>
+      </c>
+      <c r="B122" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122">
+        <v>6.9</v>
+      </c>
+      <c r="D122">
+        <v>3.2</v>
+      </c>
+      <c r="E122">
+        <v>5.7</v>
+      </c>
+      <c r="F122">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I122" s="2">
+        <v>50</v>
+      </c>
+      <c r="J122" s="2">
+        <v>1</v>
+      </c>
+      <c r="K122" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L122" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>2</v>
+      </c>
+      <c r="B123" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123">
+        <v>5.6</v>
+      </c>
+      <c r="D123">
+        <v>2.8</v>
+      </c>
+      <c r="E123">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F123">
+        <v>2</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I123" s="2">
+        <v>50</v>
+      </c>
+      <c r="J123" s="2">
+        <v>1</v>
+      </c>
+      <c r="K123" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L123" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>2</v>
+      </c>
+      <c r="B124" t="s">
+        <v>2</v>
+      </c>
+      <c r="C124">
+        <v>7.7</v>
+      </c>
+      <c r="D124">
+        <v>2.8</v>
+      </c>
+      <c r="E124">
+        <v>6.7</v>
+      </c>
+      <c r="F124">
+        <v>2</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I124" s="2">
+        <v>50</v>
+      </c>
+      <c r="J124" s="2">
+        <v>1</v>
+      </c>
+      <c r="K124" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L124" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>2</v>
+      </c>
+      <c r="B125" t="s">
+        <v>2</v>
+      </c>
+      <c r="C125">
+        <v>6.3</v>
+      </c>
+      <c r="D125">
+        <v>2.7</v>
+      </c>
+      <c r="E125">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F125">
+        <v>1.8</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I125" s="2">
+        <v>50</v>
+      </c>
+      <c r="J125" s="2">
+        <v>1</v>
+      </c>
+      <c r="K125" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L125" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>2</v>
+      </c>
+      <c r="B126" t="s">
+        <v>2</v>
+      </c>
+      <c r="C126">
+        <v>6.7</v>
+      </c>
+      <c r="D126">
+        <v>3.3</v>
+      </c>
+      <c r="E126">
+        <v>5.7</v>
+      </c>
+      <c r="F126">
+        <v>2.1</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I126" s="2">
+        <v>50</v>
+      </c>
+      <c r="J126" s="2">
+        <v>1</v>
+      </c>
+      <c r="K126" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L126" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>2</v>
+      </c>
+      <c r="B127" t="s">
+        <v>2</v>
+      </c>
+      <c r="C127">
+        <v>7.2</v>
+      </c>
+      <c r="D127">
+        <v>3.2</v>
+      </c>
+      <c r="E127">
+        <v>6</v>
+      </c>
+      <c r="F127">
+        <v>1.8</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I127" s="2">
+        <v>50</v>
+      </c>
+      <c r="J127" s="2">
+        <v>1</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L127" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>2</v>
+      </c>
+      <c r="B128" t="s">
+        <v>2</v>
+      </c>
+      <c r="C128">
+        <v>6.2</v>
+      </c>
+      <c r="D128">
+        <v>2.8</v>
+      </c>
+      <c r="E128">
+        <v>4.8</v>
+      </c>
+      <c r="F128">
+        <v>1.8</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I128" s="2">
+        <v>50</v>
+      </c>
+      <c r="J128" s="2">
+        <v>1</v>
+      </c>
+      <c r="K128" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L128" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>2</v>
+      </c>
+      <c r="B129" t="s">
+        <v>2</v>
+      </c>
+      <c r="C129">
+        <v>6.1</v>
+      </c>
+      <c r="D129">
+        <v>3</v>
+      </c>
+      <c r="E129">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F129">
+        <v>1.8</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I129" s="2">
+        <v>50</v>
+      </c>
+      <c r="J129" s="2">
+        <v>1</v>
+      </c>
+      <c r="K129" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L129" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>2</v>
+      </c>
+      <c r="B130" t="s">
+        <v>2</v>
+      </c>
+      <c r="C130">
+        <v>6.4</v>
+      </c>
+      <c r="D130">
+        <v>2.8</v>
+      </c>
+      <c r="E130">
+        <v>5.6</v>
+      </c>
+      <c r="F130">
+        <v>2.1</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I130" s="2">
+        <v>50</v>
+      </c>
+      <c r="J130" s="2">
+        <v>1</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L130" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>2</v>
+      </c>
+      <c r="B131" t="s">
+        <v>2</v>
+      </c>
+      <c r="C131">
+        <v>7.2</v>
+      </c>
+      <c r="D131">
+        <v>3</v>
+      </c>
+      <c r="E131">
+        <v>5.8</v>
+      </c>
+      <c r="F131">
+        <v>1.6</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I131" s="2">
+        <v>50</v>
+      </c>
+      <c r="J131" s="2">
+        <v>1</v>
+      </c>
+      <c r="K131" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L131" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>2</v>
+      </c>
+      <c r="B132" t="s">
+        <v>2</v>
+      </c>
+      <c r="C132">
+        <v>7.4</v>
+      </c>
+      <c r="D132">
+        <v>2.8</v>
+      </c>
+      <c r="E132">
+        <v>6.1</v>
+      </c>
+      <c r="F132">
+        <v>1.9</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I132" s="2">
+        <v>50</v>
+      </c>
+      <c r="J132" s="2">
+        <v>1</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L132" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>2</v>
+      </c>
+      <c r="B133" t="s">
+        <v>2</v>
+      </c>
+      <c r="C133">
+        <v>7.9</v>
+      </c>
+      <c r="D133">
+        <v>3.8</v>
+      </c>
+      <c r="E133">
+        <v>6.4</v>
+      </c>
+      <c r="F133">
+        <v>2</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I133" s="2">
+        <v>50</v>
+      </c>
+      <c r="J133" s="2">
+        <v>1</v>
+      </c>
+      <c r="K133" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L133" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>2</v>
+      </c>
+      <c r="B134" t="s">
+        <v>2</v>
+      </c>
+      <c r="C134">
+        <v>6.4</v>
+      </c>
+      <c r="D134">
+        <v>2.8</v>
+      </c>
+      <c r="E134">
+        <v>5.6</v>
+      </c>
+      <c r="F134">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I134" s="2">
+        <v>50</v>
+      </c>
+      <c r="J134" s="2">
+        <v>1</v>
+      </c>
+      <c r="K134" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L134" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>2</v>
+      </c>
+      <c r="B135" t="s">
+        <v>2</v>
+      </c>
+      <c r="C135">
+        <v>6.3</v>
+      </c>
+      <c r="D135">
+        <v>2.8</v>
+      </c>
+      <c r="E135">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F135">
+        <v>1.5</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I135" s="2">
+        <v>50</v>
+      </c>
+      <c r="J135" s="2">
+        <v>1</v>
+      </c>
+      <c r="K135" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L135" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>2</v>
+      </c>
+      <c r="B136" t="s">
+        <v>2</v>
+      </c>
+      <c r="C136">
+        <v>6.1</v>
+      </c>
+      <c r="D136">
+        <v>2.6</v>
+      </c>
+      <c r="E136">
+        <v>5.6</v>
+      </c>
+      <c r="F136">
+        <v>1.4</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I136" s="2">
+        <v>50</v>
+      </c>
+      <c r="J136" s="2">
+        <v>1</v>
+      </c>
+      <c r="K136" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L136" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>2</v>
+      </c>
+      <c r="B137" t="s">
+        <v>2</v>
+      </c>
+      <c r="C137">
+        <v>7.7</v>
+      </c>
+      <c r="D137">
+        <v>3</v>
+      </c>
+      <c r="E137">
+        <v>6.1</v>
+      </c>
+      <c r="F137">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I137" s="2">
+        <v>50</v>
+      </c>
+      <c r="J137" s="2">
+        <v>1</v>
+      </c>
+      <c r="K137" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L137" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>2</v>
+      </c>
+      <c r="B138" t="s">
+        <v>2</v>
+      </c>
+      <c r="C138">
+        <v>6.3</v>
+      </c>
+      <c r="D138">
+        <v>3.4</v>
+      </c>
+      <c r="E138">
+        <v>5.6</v>
+      </c>
+      <c r="F138">
+        <v>2.4</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I138" s="2">
+        <v>50</v>
+      </c>
+      <c r="J138" s="2">
+        <v>1</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L138" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>2</v>
+      </c>
+      <c r="B139" t="s">
+        <v>2</v>
+      </c>
+      <c r="C139">
+        <v>6.4</v>
+      </c>
+      <c r="D139">
+        <v>3.1</v>
+      </c>
+      <c r="E139">
+        <v>5.5</v>
+      </c>
+      <c r="F139">
+        <v>1.8</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I139" s="2">
+        <v>50</v>
+      </c>
+      <c r="J139" s="2">
+        <v>1</v>
+      </c>
+      <c r="K139" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L139" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>2</v>
+      </c>
+      <c r="B140" t="s">
+        <v>2</v>
+      </c>
+      <c r="C140">
+        <v>6</v>
+      </c>
+      <c r="D140">
+        <v>3</v>
+      </c>
+      <c r="E140">
+        <v>4.8</v>
+      </c>
+      <c r="F140">
+        <v>1.8</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I140" s="2">
+        <v>50</v>
+      </c>
+      <c r="J140" s="2">
+        <v>1</v>
+      </c>
+      <c r="K140" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L140" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>2</v>
+      </c>
+      <c r="B141" t="s">
+        <v>2</v>
+      </c>
+      <c r="C141">
+        <v>6.9</v>
+      </c>
+      <c r="D141">
+        <v>3.1</v>
+      </c>
+      <c r="E141">
+        <v>5.4</v>
+      </c>
+      <c r="F141">
+        <v>2.1</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I141" s="2">
+        <v>50</v>
+      </c>
+      <c r="J141" s="2">
+        <v>1</v>
+      </c>
+      <c r="K141" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L141" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>2</v>
+      </c>
+      <c r="B142" t="s">
+        <v>2</v>
+      </c>
+      <c r="C142">
+        <v>6.7</v>
+      </c>
+      <c r="D142">
+        <v>3.1</v>
+      </c>
+      <c r="E142">
+        <v>5.6</v>
+      </c>
+      <c r="F142">
+        <v>2.4</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I142" s="2">
+        <v>50</v>
+      </c>
+      <c r="J142" s="2">
+        <v>1</v>
+      </c>
+      <c r="K142" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L142" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>2</v>
+      </c>
+      <c r="B143" t="s">
+        <v>2</v>
+      </c>
+      <c r="C143">
+        <v>6.9</v>
+      </c>
+      <c r="D143">
+        <v>3.1</v>
+      </c>
+      <c r="E143">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F143">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I143" s="2">
+        <v>50</v>
+      </c>
+      <c r="J143" s="2">
+        <v>1</v>
+      </c>
+      <c r="K143" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L143" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>2</v>
+      </c>
+      <c r="B144" t="s">
+        <v>2</v>
+      </c>
+      <c r="C144">
+        <v>5.8</v>
+      </c>
+      <c r="D144">
+        <v>2.7</v>
+      </c>
+      <c r="E144">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F144">
+        <v>1.9</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I144" s="2">
+        <v>50</v>
+      </c>
+      <c r="J144" s="2">
+        <v>1</v>
+      </c>
+      <c r="K144" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L144" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>2</v>
+      </c>
+      <c r="B145" t="s">
+        <v>2</v>
+      </c>
+      <c r="C145">
+        <v>6.8</v>
+      </c>
+      <c r="D145">
+        <v>3.2</v>
+      </c>
+      <c r="E145">
+        <v>5.9</v>
+      </c>
+      <c r="F145">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I145" s="2">
+        <v>50</v>
+      </c>
+      <c r="J145" s="2">
+        <v>1</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L145" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>2</v>
+      </c>
+      <c r="B146" t="s">
+        <v>2</v>
+      </c>
+      <c r="C146">
+        <v>6.7</v>
+      </c>
+      <c r="D146">
+        <v>3.3</v>
+      </c>
+      <c r="E146">
+        <v>5.7</v>
+      </c>
+      <c r="F146">
+        <v>2.5</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I146" s="2">
+        <v>50</v>
+      </c>
+      <c r="J146" s="2">
+        <v>1</v>
+      </c>
+      <c r="K146" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L146" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>2</v>
+      </c>
+      <c r="B147" t="s">
+        <v>2</v>
+      </c>
+      <c r="C147">
+        <v>6.7</v>
+      </c>
+      <c r="D147">
+        <v>3</v>
+      </c>
+      <c r="E147">
+        <v>5.2</v>
+      </c>
+      <c r="F147">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I147" s="2">
+        <v>50</v>
+      </c>
+      <c r="J147" s="2">
+        <v>1</v>
+      </c>
+      <c r="K147" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L147" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>2</v>
+      </c>
+      <c r="B148" t="s">
+        <v>2</v>
+      </c>
+      <c r="C148">
+        <v>6.3</v>
+      </c>
+      <c r="D148">
+        <v>2.5</v>
+      </c>
+      <c r="E148">
+        <v>5</v>
+      </c>
+      <c r="F148">
+        <v>1.9</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I148" s="2">
+        <v>50</v>
+      </c>
+      <c r="J148" s="2">
+        <v>1</v>
+      </c>
+      <c r="K148" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L148" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>2</v>
+      </c>
+      <c r="B149" t="s">
+        <v>2</v>
+      </c>
+      <c r="C149">
+        <v>6.5</v>
+      </c>
+      <c r="D149">
+        <v>3</v>
+      </c>
+      <c r="E149">
+        <v>5.2</v>
+      </c>
+      <c r="F149">
+        <v>2</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I149" s="2">
+        <v>50</v>
+      </c>
+      <c r="J149" s="2">
+        <v>1</v>
+      </c>
+      <c r="K149" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L149" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>2</v>
+      </c>
+      <c r="B150" t="s">
+        <v>2</v>
+      </c>
+      <c r="C150">
+        <v>6.2</v>
+      </c>
+      <c r="D150">
+        <v>3.4</v>
+      </c>
+      <c r="E150">
+        <v>5.4</v>
+      </c>
+      <c r="F150">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I150" s="2">
+        <v>50</v>
+      </c>
+      <c r="J150" s="2">
+        <v>1</v>
+      </c>
+      <c r="K150" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L150" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>2</v>
+      </c>
+      <c r="B151" t="s">
+        <v>2</v>
+      </c>
+      <c r="C151">
+        <v>5.9</v>
+      </c>
+      <c r="D151">
+        <v>3</v>
+      </c>
+      <c r="E151">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F151">
+        <v>1.8</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I151" s="2">
+        <v>50</v>
+      </c>
+      <c r="J151" s="2">
+        <v>1</v>
+      </c>
+      <c r="K151" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L151" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>